--- a/ig/ch-lab-report/StructureDefinition-ch-lab-patient.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2275,17 +2275,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.7421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.69921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.82421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2294,28 +2294,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="106.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="60.68359375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="107.56640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-patient.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="623">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Patient</t>
+    <t>CH LAB-Report Patient</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -275,11 +275,14 @@
 </t>
   </si>
   <si>
+    <t>CH LAB Patient</t>
+  </si>
+  <si>
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:If one ore more human names are provided, at least one human name should have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender 'unknown' is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -582,7 +585,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -998,7 +1001,7 @@
     <t>.telecom</t>
   </si>
   <si>
-    <t>-&gt; as of HL7 v2.7 PID-40 (leave PID-13 and PID-14 empty)</t>
+    <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
     <t>Patient.telecom.id</t>
@@ -1187,7 +1190,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other</t>
+    <t>male | female | other | unknown* (* see warning 'ch-pat-2')</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -2504,10 +2507,10 @@
         <v>85</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2570,16 +2573,16 @@
         <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>84</v>
@@ -2593,10 +2596,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2607,7 +2610,7 @@
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>84</v>
@@ -2616,19 +2619,19 @@
         <v>84</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2678,13 +2681,13 @@
         <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>84</v>
@@ -2713,10 +2716,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2727,7 +2730,7 @@
         <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>84</v>
@@ -2736,16 +2739,16 @@
         <v>84</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2796,19 +2799,19 @@
         <v>84</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>84</v>
@@ -2831,10 +2834,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2845,28 +2848,28 @@
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2916,19 +2919,19 @@
         <v>84</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>84</v>
@@ -2951,10 +2954,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2965,7 +2968,7 @@
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>84</v>
@@ -2977,16 +2980,16 @@
         <v>84</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3012,13 +3015,13 @@
         <v>84</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>84</v>
@@ -3036,19 +3039,19 @@
         <v>84</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>84</v>
@@ -3071,21 +3074,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>84</v>
@@ -3097,16 +3100,16 @@
         <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3156,25 +3159,25 @@
         <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>84</v>
@@ -3191,14 +3194,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3217,16 +3220,16 @@
         <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3276,7 +3279,7 @@
         <v>84</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -3294,7 +3297,7 @@
         <v>84</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>84</v>
@@ -3311,10 +3314,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3337,13 +3340,13 @@
         <v>84</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3382,17 +3385,17 @@
         <v>84</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>82</v>
@@ -3404,7 +3407,7 @@
         <v>84</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>84</v>
@@ -3427,13 +3430,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>84</v>
@@ -3443,7 +3446,7 @@
         <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>84</v>
@@ -3455,13 +3458,13 @@
         <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3512,7 +3515,7 @@
         <v>84</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -3524,10 +3527,10 @@
         <v>84</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>84</v>
@@ -3547,13 +3550,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3575,13 +3578,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3632,7 +3635,7 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
@@ -3641,13 +3644,13 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>84</v>
@@ -3667,13 +3670,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>84</v>
@@ -3695,13 +3698,13 @@
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3752,7 +3755,7 @@
         <v>84</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3764,10 +3767,10 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>84</v>
@@ -3787,13 +3790,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>84</v>
@@ -3803,7 +3806,7 @@
         <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>84</v>
@@ -3815,13 +3818,13 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3872,7 +3875,7 @@
         <v>84</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -3884,10 +3887,10 @@
         <v>84</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>84</v>
@@ -3907,14 +3910,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3927,25 +3930,25 @@
         <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>84</v>
@@ -3994,7 +3997,7 @@
         <v>84</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -4006,13 +4009,13 @@
         <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>84</v>
@@ -4029,10 +4032,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4052,20 +4055,20 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>84</v>
@@ -4102,17 +4105,17 @@
         <v>84</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -4124,22 +4127,22 @@
         <v>84</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>84</v>
@@ -4147,13 +4150,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>84</v>
@@ -4175,17 +4178,17 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>84</v>
@@ -4195,7 +4198,7 @@
         <v>84</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>84</v>
@@ -4234,7 +4237,7 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
@@ -4243,16 +4246,16 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>84</v>
@@ -4261,7 +4264,7 @@
         <v>84</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>84</v>
@@ -4269,13 +4272,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>84</v>
@@ -4297,17 +4300,17 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>84</v>
@@ -4317,7 +4320,7 @@
         <v>84</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>84</v>
@@ -4356,7 +4359,7 @@
         <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4365,16 +4368,16 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>84</v>
@@ -4383,7 +4386,7 @@
         <v>84</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>84</v>
@@ -4391,13 +4394,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>84</v>
@@ -4416,20 +4419,20 @@
         <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>84</v>
@@ -4439,7 +4442,7 @@
         <v>84</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>84</v>
@@ -4478,7 +4481,7 @@
         <v>84</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4490,22 +4493,22 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>84</v>
@@ -4513,10 +4516,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4527,7 +4530,7 @@
         <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>84</v>
@@ -4539,13 +4542,13 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4596,13 +4599,13 @@
         <v>84</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>84</v>
@@ -4614,7 +4617,7 @@
         <v>84</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>84</v>
@@ -4631,14 +4634,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4657,16 +4660,16 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4704,19 +4707,19 @@
         <v>84</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4728,13 +4731,13 @@
         <v>84</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>84</v>
@@ -4751,10 +4754,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4765,31 +4768,31 @@
         <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>84</v>
@@ -4814,13 +4817,13 @@
         <v>84</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>84</v>
@@ -4838,25 +4841,25 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>84</v>
@@ -4865,7 +4868,7 @@
         <v>84</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>84</v>
@@ -4873,10 +4876,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4887,7 +4890,7 @@
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>84</v>
@@ -4896,22 +4899,22 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>84</v>
@@ -4936,13 +4939,13 @@
         <v>84</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>84</v>
@@ -4960,25 +4963,25 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>84</v>
@@ -4987,7 +4990,7 @@
         <v>84</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>84</v>
@@ -4995,10 +4998,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5006,10 +5009,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>84</v>
@@ -5018,22 +5021,22 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>84</v>
@@ -5046,7 +5049,7 @@
         <v>84</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>84</v>
@@ -5082,25 +5085,25 @@
         <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>84</v>
@@ -5109,7 +5112,7 @@
         <v>84</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>84</v>
@@ -5117,10 +5120,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5128,10 +5131,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>84</v>
@@ -5140,19 +5143,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5166,7 +5169,7 @@
         <v>84</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>84</v>
@@ -5202,25 +5205,25 @@
         <v>84</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>84</v>
@@ -5229,7 +5232,7 @@
         <v>84</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>84</v>
@@ -5237,10 +5240,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5251,7 +5254,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>84</v>
@@ -5260,16 +5263,16 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5320,25 +5323,25 @@
         <v>84</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>84</v>
@@ -5347,7 +5350,7 @@
         <v>84</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>84</v>
@@ -5355,10 +5358,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5369,7 +5372,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>84</v>
@@ -5378,19 +5381,19 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5440,25 +5443,25 @@
         <v>84</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>84</v>
@@ -5467,7 +5470,7 @@
         <v>84</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>84</v>
@@ -5475,13 +5478,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>84</v>
@@ -5503,17 +5506,17 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>84</v>
@@ -5523,7 +5526,7 @@
         <v>84</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>84</v>
@@ -5562,7 +5565,7 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5571,16 +5574,16 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>84</v>
@@ -5589,7 +5592,7 @@
         <v>84</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>84</v>
@@ -5597,10 +5600,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5611,106 +5614,106 @@
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="AI28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>84</v>
@@ -5721,10 +5724,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5747,19 +5750,19 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>84</v>
@@ -5808,7 +5811,7 @@
         <v>84</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5817,16 +5820,16 @@
         <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>84</v>
@@ -5835,7 +5838,7 @@
         <v>84</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>84</v>
@@ -5843,10 +5846,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5866,22 +5869,22 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>84</v>
@@ -5918,17 +5921,17 @@
         <v>84</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -5940,22 +5943,22 @@
         <v>84</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>84</v>
@@ -5963,10 +5966,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5977,7 +5980,7 @@
         <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>84</v>
@@ -5989,13 +5992,13 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6046,13 +6049,13 @@
         <v>84</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>84</v>
@@ -6064,7 +6067,7 @@
         <v>84</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>84</v>
@@ -6081,14 +6084,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6107,16 +6110,16 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6154,19 +6157,19 @@
         <v>84</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6178,13 +6181,13 @@
         <v>84</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>84</v>
@@ -6201,10 +6204,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6212,10 +6215,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>84</v>
@@ -6224,16 +6227,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6260,13 +6263,13 @@
         <v>84</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>84</v>
@@ -6284,25 +6287,25 @@
         <v>84</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>84</v>
@@ -6311,7 +6314,7 @@
         <v>84</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>84</v>
@@ -6319,10 +6322,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6330,10 +6333,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>84</v>
@@ -6342,22 +6345,22 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>84</v>
@@ -6406,25 +6409,25 @@
         <v>84</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>84</v>
@@ -6433,7 +6436,7 @@
         <v>84</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>84</v>
@@ -6441,10 +6444,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6455,31 +6458,31 @@
         <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
@@ -6504,13 +6507,13 @@
         <v>84</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>84</v>
@@ -6528,25 +6531,25 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>84</v>
@@ -6555,7 +6558,7 @@
         <v>84</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>84</v>
@@ -6563,10 +6566,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6577,7 +6580,7 @@
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>84</v>
@@ -6586,19 +6589,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6648,25 +6651,25 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>84</v>
@@ -6675,7 +6678,7 @@
         <v>84</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>84</v>
@@ -6683,10 +6686,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6697,7 +6700,7 @@
         <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>84</v>
@@ -6706,16 +6709,16 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6766,25 +6769,25 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>84</v>
@@ -6793,7 +6796,7 @@
         <v>84</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>84</v>
@@ -6801,13 +6804,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>84</v>
@@ -6829,19 +6832,19 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
@@ -6890,7 +6893,7 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -6899,16 +6902,16 @@
         <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>84</v>
@@ -6917,7 +6920,7 @@
         <v>84</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>84</v>
@@ -6925,13 +6928,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>84</v>
@@ -6953,19 +6956,19 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>84</v>
@@ -7014,7 +7017,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7023,16 +7026,16 @@
         <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>84</v>
@@ -7041,7 +7044,7 @@
         <v>84</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>84</v>
@@ -7049,13 +7052,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>84</v>
@@ -7077,19 +7080,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>84</v>
@@ -7138,7 +7141,7 @@
         <v>84</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -7147,16 +7150,16 @@
         <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>84</v>
@@ -7165,7 +7168,7 @@
         <v>84</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>84</v>
@@ -7173,10 +7176,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7187,7 +7190,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>84</v>
@@ -7196,22 +7199,22 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>84</v>
@@ -7236,13 +7239,13 @@
         <v>84</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>84</v>
@@ -7260,34 +7263,34 @@
         <v>84</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>84</v>
@@ -7295,10 +7298,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7309,7 +7312,7 @@
         <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>84</v>
@@ -7318,22 +7321,22 @@
         <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7382,45 +7385,45 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7431,31 +7434,31 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -7504,34 +7507,34 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>84</v>
@@ -7539,10 +7542,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7565,19 +7568,19 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
@@ -7626,7 +7629,7 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7635,16 +7638,16 @@
         <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>84</v>
@@ -7653,7 +7656,7 @@
         <v>84</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>84</v>
@@ -7661,10 +7664,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7675,7 +7678,7 @@
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>84</v>
@@ -7687,17 +7690,17 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>84</v>
@@ -7722,11 +7725,11 @@
         <v>84</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>84</v>
@@ -7744,34 +7747,34 @@
         <v>84</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>84</v>
@@ -7779,10 +7782,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7793,7 +7796,7 @@
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>84</v>
@@ -7805,13 +7808,13 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7862,13 +7865,13 @@
         <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>84</v>
@@ -7880,7 +7883,7 @@
         <v>84</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>84</v>
@@ -7897,14 +7900,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7923,16 +7926,16 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7970,19 +7973,19 @@
         <v>84</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7994,13 +7997,13 @@
         <v>84</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>84</v>
@@ -8017,13 +8020,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="C48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>84</v>
@@ -8033,7 +8036,7 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>84</v>
@@ -8045,13 +8048,13 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8102,7 +8105,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8114,10 +8117,10 @@
         <v>84</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>84</v>
@@ -8137,10 +8140,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8160,22 +8163,22 @@
         <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>84</v>
@@ -8224,7 +8227,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8236,13 +8239,13 @@
         <v>84</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>84</v>
@@ -8251,7 +8254,7 @@
         <v>84</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
@@ -8259,10 +8262,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8273,7 +8276,7 @@
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>84</v>
@@ -8282,22 +8285,22 @@
         <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -8346,25 +8349,25 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>84</v>
@@ -8373,7 +8376,7 @@
         <v>84</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>84</v>
@@ -8381,10 +8384,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8395,7 +8398,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>84</v>
@@ -8407,19 +8410,19 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>84</v>
@@ -8468,34 +8471,34 @@
         <v>84</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>84</v>
@@ -8503,10 +8506,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8529,19 +8532,19 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>84</v>
@@ -8590,7 +8593,7 @@
         <v>84</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8602,22 +8605,22 @@
         <v>84</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>84</v>
@@ -8625,10 +8628,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8651,19 +8654,19 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>84</v>
@@ -8700,17 +8703,17 @@
         <v>84</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8722,16 +8725,16 @@
         <v>84</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>84</v>
@@ -8745,10 +8748,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8759,7 +8762,7 @@
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>84</v>
@@ -8771,13 +8774,13 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8828,13 +8831,13 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>84</v>
@@ -8846,7 +8849,7 @@
         <v>84</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>84</v>
@@ -8863,14 +8866,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8889,16 +8892,16 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8948,7 +8951,7 @@
         <v>84</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -8960,13 +8963,13 @@
         <v>84</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>84</v>
@@ -8983,14 +8986,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9003,25 +9006,25 @@
         <v>84</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>84</v>
@@ -9070,7 +9073,7 @@
         <v>84</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -9082,13 +9085,13 @@
         <v>84</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>84</v>
@@ -9105,10 +9108,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9131,17 +9134,17 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9166,13 +9169,13 @@
         <v>84</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>84</v>
@@ -9190,7 +9193,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9202,22 +9205,22 @@
         <v>84</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>84</v>
@@ -9225,10 +9228,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9239,7 +9242,7 @@
         <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>84</v>
@@ -9251,17 +9254,17 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>84</v>
@@ -9310,34 +9313,34 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>84</v>
@@ -9345,10 +9348,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9371,19 +9374,19 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>84</v>
@@ -9432,7 +9435,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9444,22 +9447,22 @@
         <v>84</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>84</v>
@@ -9467,10 +9470,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9481,7 +9484,7 @@
         <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>84</v>
@@ -9493,17 +9496,17 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>84</v>
@@ -9552,34 +9555,34 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>84</v>
@@ -9587,10 +9590,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9601,7 +9604,7 @@
         <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>84</v>
@@ -9613,17 +9616,17 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>84</v>
@@ -9648,13 +9651,13 @@
         <v>84</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>84</v>
@@ -9672,34 +9675,34 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>84</v>
@@ -9707,10 +9710,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9721,7 +9724,7 @@
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>84</v>
@@ -9733,17 +9736,17 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -9792,34 +9795,34 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>84</v>
@@ -9827,10 +9830,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9841,7 +9844,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>84</v>
@@ -9853,13 +9856,13 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9910,28 +9913,28 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>84</v>
@@ -9945,13 +9948,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>84</v>
@@ -9961,7 +9964,7 @@
         <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>84</v>
@@ -9973,19 +9976,19 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10034,7 +10037,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10046,16 +10049,16 @@
         <v>84</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>84</v>
@@ -10069,10 +10072,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10083,7 +10086,7 @@
         <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>84</v>
@@ -10095,13 +10098,13 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10152,13 +10155,13 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>84</v>
@@ -10170,7 +10173,7 @@
         <v>84</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>84</v>
@@ -10187,14 +10190,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10213,16 +10216,16 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10272,7 +10275,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10284,13 +10287,13 @@
         <v>84</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>84</v>
@@ -10307,14 +10310,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10327,25 +10330,25 @@
         <v>84</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -10394,7 +10397,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10406,13 +10409,13 @@
         <v>84</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>84</v>
@@ -10429,10 +10432,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10440,10 +10443,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>84</v>
@@ -10455,17 +10458,17 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>84</v>
@@ -10475,7 +10478,7 @@
         <v>84</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>84</v>
@@ -10490,13 +10493,13 @@
         <v>84</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>84</v>
@@ -10514,7 +10517,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10526,22 +10529,22 @@
         <v>84</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>84</v>
@@ -10549,10 +10552,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10563,7 +10566,7 @@
         <v>82</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>84</v>
@@ -10575,17 +10578,17 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>84</v>
@@ -10634,34 +10637,34 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>84</v>
@@ -10669,10 +10672,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10695,19 +10698,19 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
@@ -10756,7 +10759,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -10768,22 +10771,22 @@
         <v>84</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>84</v>
@@ -10791,10 +10794,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10802,10 +10805,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>84</v>
@@ -10817,19 +10820,19 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>84</v>
@@ -10878,25 +10881,25 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>84</v>
@@ -10905,7 +10908,7 @@
         <v>84</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>84</v>
@@ -10913,10 +10916,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10927,7 +10930,7 @@
         <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>84</v>
@@ -10939,17 +10942,17 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>84</v>
@@ -10974,13 +10977,13 @@
         <v>84</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>84</v>
@@ -10998,34 +11001,34 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>84</v>
@@ -11033,10 +11036,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11047,7 +11050,7 @@
         <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>84</v>
@@ -11059,17 +11062,17 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>84</v>
@@ -11118,34 +11121,34 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>84</v>
@@ -11153,10 +11156,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11167,7 +11170,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>84</v>
@@ -11179,13 +11182,13 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11236,28 +11239,28 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>84</v>
@@ -11271,13 +11274,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11299,19 +11302,19 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>84</v>
@@ -11360,7 +11363,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11372,16 +11375,16 @@
         <v>84</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>84</v>
@@ -11395,10 +11398,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11409,7 +11412,7 @@
         <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>84</v>
@@ -11421,13 +11424,13 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11478,13 +11481,13 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>84</v>
@@ -11496,7 +11499,7 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>84</v>
@@ -11513,14 +11516,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11539,16 +11542,16 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11598,7 +11601,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -11610,13 +11613,13 @@
         <v>84</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>84</v>
@@ -11633,14 +11636,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11653,25 +11656,25 @@
         <v>84</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -11720,7 +11723,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -11732,13 +11735,13 @@
         <v>84</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>84</v>
@@ -11755,10 +11758,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11766,10 +11769,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>84</v>
@@ -11781,17 +11784,17 @@
         <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>84</v>
@@ -11801,7 +11804,7 @@
         <v>84</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>84</v>
@@ -11816,13 +11819,13 @@
         <v>84</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>84</v>
@@ -11840,7 +11843,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -11852,22 +11855,22 @@
         <v>84</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>84</v>
@@ -11875,10 +11878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11886,10 +11889,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>84</v>
@@ -11901,17 +11904,17 @@
         <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>84</v>
@@ -11960,34 +11963,34 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>84</v>
@@ -11995,10 +11998,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12021,19 +12024,19 @@
         <v>84</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12082,7 +12085,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12094,22 +12097,22 @@
         <v>84</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>84</v>
@@ -12117,10 +12120,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12131,7 +12134,7 @@
         <v>82</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>84</v>
@@ -12143,17 +12146,17 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12202,34 +12205,34 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>84</v>
@@ -12237,10 +12240,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12251,7 +12254,7 @@
         <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>84</v>
@@ -12263,17 +12266,17 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12298,13 +12301,13 @@
         <v>84</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>84</v>
@@ -12322,34 +12325,34 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>84</v>
@@ -12357,10 +12360,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12371,7 +12374,7 @@
         <v>82</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>84</v>
@@ -12383,17 +12386,17 @@
         <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>84</v>
@@ -12442,34 +12445,34 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>84</v>
@@ -12477,10 +12480,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12491,7 +12494,7 @@
         <v>82</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>84</v>
@@ -12503,13 +12506,13 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12560,28 +12563,28 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>84</v>
@@ -12595,10 +12598,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12621,19 +12624,19 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -12670,17 +12673,17 @@
         <v>84</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AC86" s="2"/>
       <c r="AD86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12692,16 +12695,16 @@
         <v>84</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>84</v>
@@ -12715,10 +12718,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12729,7 +12732,7 @@
         <v>82</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>84</v>
@@ -12741,13 +12744,13 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12798,13 +12801,13 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>84</v>
@@ -12816,7 +12819,7 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>84</v>
@@ -12833,14 +12836,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12859,16 +12862,16 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12918,7 +12921,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -12930,13 +12933,13 @@
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>84</v>
@@ -12953,14 +12956,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12973,25 +12976,25 @@
         <v>84</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13040,7 +13043,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13052,13 +13055,13 @@
         <v>84</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>84</v>
@@ -13075,10 +13078,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13086,10 +13089,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>84</v>
@@ -13101,19 +13104,19 @@
         <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>84</v>
@@ -13138,13 +13141,13 @@
         <v>84</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>84</v>
@@ -13162,34 +13165,34 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>84</v>
@@ -13197,10 +13200,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13211,7 +13214,7 @@
         <v>82</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>84</v>
@@ -13223,19 +13226,19 @@
         <v>84</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -13284,34 +13287,34 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>84</v>
@@ -13319,13 +13322,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>84</v>
@@ -13335,7 +13338,7 @@
         <v>82</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>84</v>
@@ -13347,19 +13350,19 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>84</v>
@@ -13408,7 +13411,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13420,16 +13423,16 @@
         <v>84</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>84</v>
@@ -13443,10 +13446,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13457,7 +13460,7 @@
         <v>82</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>84</v>
@@ -13469,13 +13472,13 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13526,13 +13529,13 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>84</v>
@@ -13544,7 +13547,7 @@
         <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>84</v>
@@ -13561,14 +13564,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13587,16 +13590,16 @@
         <v>84</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13646,7 +13649,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13658,13 +13661,13 @@
         <v>84</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>84</v>
@@ -13681,14 +13684,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13701,25 +13704,25 @@
         <v>84</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13768,7 +13771,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -13780,13 +13783,13 @@
         <v>84</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>84</v>
@@ -13803,10 +13806,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13814,10 +13817,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>84</v>
@@ -13829,19 +13832,19 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -13866,13 +13869,13 @@
         <v>84</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>84</v>
@@ -13890,34 +13893,34 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>84</v>
@@ -13925,10 +13928,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13936,10 +13939,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>84</v>
@@ -13951,26 +13954,26 @@
         <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>84</v>
@@ -14012,34 +14015,34 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>84</v>
@@ -14047,14 +14050,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14073,16 +14076,16 @@
         <v>84</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14132,7 +14135,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14144,22 +14147,22 @@
         <v>84</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>84</v>
@@ -14167,10 +14170,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14181,7 +14184,7 @@
         <v>82</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>84</v>
@@ -14190,22 +14193,22 @@
         <v>84</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>84</v>
@@ -14254,28 +14257,28 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>84</v>
@@ -14289,10 +14292,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14309,25 +14312,25 @@
         <v>84</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
@@ -14376,7 +14379,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14388,16 +14391,16 @@
         <v>84</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>84</v>
@@ -14411,10 +14414,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14425,7 +14428,7 @@
         <v>82</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>84</v>
@@ -14437,13 +14440,13 @@
         <v>84</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14494,13 +14497,13 @@
         <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>84</v>
@@ -14512,7 +14515,7 @@
         <v>84</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>84</v>
@@ -14529,14 +14532,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14555,16 +14558,16 @@
         <v>84</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14614,7 +14617,7 @@
         <v>84</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -14626,13 +14629,13 @@
         <v>84</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>84</v>
@@ -14649,14 +14652,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14669,25 +14672,25 @@
         <v>84</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>84</v>
@@ -14736,7 +14739,7 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -14748,13 +14751,13 @@
         <v>84</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>84</v>
@@ -14771,10 +14774,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14782,10 +14785,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>84</v>
@@ -14794,19 +14797,19 @@
         <v>84</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14856,34 +14859,34 @@
         <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>84</v>
@@ -14891,10 +14894,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14902,10 +14905,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>84</v>
@@ -14914,16 +14917,16 @@
         <v>84</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14950,13 +14953,13 @@
         <v>84</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>84</v>
@@ -14974,28 +14977,28 @@
         <v>84</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>84</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-patient.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5755" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5524" uniqueCount="696">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,7 +377,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -478,6 +478,10 @@
     <t>The registered place of birth of the patient.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>eCH-0011: placeOfBirth BFS-322, BFS-323, BFS 324</t>
   </si>
   <si>
@@ -497,10 +501,6 @@
     <t>The registered place of origin of the patient.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>eCH-0011: placeOfOrigin, BFS-42</t>
   </si>
   <si>
@@ -510,7 +510,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-religion|5.2.0}
+    <t xml:space="preserve">Extension {patient-religion|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -857,7 +857,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1796,7 +1796,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -2026,8 +2026,7 @@
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
+    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -2091,36 +2090,6 @@
   </si>
   <si>
     <t>PID-15</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Patient.generalPractitioner</t>
@@ -2130,7 +2099,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2201,7 +2170,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2544,7 +2513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP150"/>
+  <dimension ref="A1:AP144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2553,9 +2522,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2578,7 +2547,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3772,13 +3741,13 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>84</v>
@@ -3798,13 +3767,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3826,13 +3795,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3892,7 +3861,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>143</v>
@@ -4012,7 +3981,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>162</v>
@@ -4132,7 +4101,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>143</v>
@@ -8104,7 +8073,7 @@
         <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>143</v>
@@ -10018,7 +9987,7 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>143</v>
@@ -11932,7 +11901,7 @@
         <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>143</v>
@@ -18289,14 +18258,16 @@
         <v>84</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AC131" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD131" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>635</v>
@@ -18314,7 +18285,7 @@
         <v>104</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>84</v>
+        <v>640</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>641</v>
@@ -18941,20 +18912,18 @@
         <v>662</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C137" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>84</v>
@@ -18966,20 +18935,18 @@
         <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>548</v>
+        <v>664</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>84</v>
       </c>
@@ -19027,7 +18994,7 @@
         <v>84</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>82</v>
@@ -19042,19 +19009,19 @@
         <v>104</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>665</v>
+        <v>84</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>642</v>
+        <v>208</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>84</v>
+        <v>669</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>84</v>
@@ -19062,10 +19029,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19085,19 +19052,23 @@
         <v>84</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>205</v>
+        <v>671</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>84</v>
       </c>
@@ -19145,7 +19116,7 @@
         <v>84</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>207</v>
+        <v>670</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>82</v>
@@ -19157,16 +19128,16 @@
         <v>84</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>208</v>
+        <v>598</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>84</v>
+        <v>675</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>84</v>
@@ -19180,14 +19151,14 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19200,24 +19171,26 @@
         <v>84</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>137</v>
+        <v>548</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>211</v>
+        <v>677</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>212</v>
+        <v>678</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O139" s="2"/>
+        <v>679</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>680</v>
+      </c>
       <c r="P139" t="s" s="2">
         <v>84</v>
       </c>
@@ -19265,7 +19238,7 @@
         <v>84</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>214</v>
+        <v>676</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>82</v>
@@ -19277,16 +19250,16 @@
         <v>84</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL139" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM139" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>84</v>
@@ -19300,46 +19273,42 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>559</v>
+        <v>84</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>560</v>
+        <v>205</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>84</v>
       </c>
@@ -19387,25 +19356,25 @@
         <v>84</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>562</v>
+        <v>207</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>84</v>
@@ -19422,21 +19391,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>84</v>
@@ -19448,20 +19417,18 @@
         <v>84</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>647</v>
+        <v>211</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>648</v>
+        <v>212</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>84</v>
       </c>
@@ -19485,13 +19452,13 @@
         <v>84</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>84</v>
@@ -19509,34 +19476,34 @@
         <v>84</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>646</v>
+        <v>214</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>651</v>
+        <v>208</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>652</v>
+        <v>84</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>653</v>
+        <v>84</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>84</v>
@@ -19544,52 +19511,52 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>84</v>
+        <v>559</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>655</v>
+        <v>560</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>657</v>
+        <v>174</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>658</v>
+        <v>175</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>671</v>
+        <v>84</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>84</v>
@@ -19631,34 +19598,34 @@
         <v>84</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>659</v>
+        <v>135</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>660</v>
+        <v>84</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>661</v>
+        <v>84</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>84</v>
@@ -19666,21 +19633,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>673</v>
+        <v>84</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>84</v>
@@ -19689,19 +19656,19 @@
         <v>84</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19751,13 +19718,13 @@
         <v>84</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>84</v>
@@ -19769,7 +19736,7 @@
         <v>84</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>208</v>
@@ -19778,7 +19745,7 @@
         <v>84</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>84</v>
@@ -19786,10 +19753,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19797,7 +19764,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>92</v>
@@ -19812,20 +19779,16 @@
         <v>93</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>84</v>
       </c>
@@ -19849,13 +19812,13 @@
         <v>84</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>84</v>
+        <v>693</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>84</v>
+        <v>694</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>84</v>
@@ -19873,10 +19836,10 @@
         <v>84</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>92</v>
@@ -19891,10 +19854,10 @@
         <v>84</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>598</v>
+        <v>695</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>685</v>
+        <v>208</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>84</v>
@@ -19903,726 +19866,6 @@
         <v>84</v>
       </c>
       <c r="AP144" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP145" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q146" s="2"/>
-      <c r="R146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP146" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O147" s="2"/>
-      <c r="P147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q147" s="2"/>
-      <c r="R147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP147" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP148" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP150" t="s" s="2">
         <v>84</v>
       </c>
     </row>
